--- a/src/results/longmethod/tnb.xlsx
+++ b/src/results/longmethod/tnb.xlsx
@@ -52,10 +52,10 @@
     <t>aoi</t>
   </si>
   <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Std</t>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>IQR</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -497,10 +497,10 @@
         <v>59</v>
       </c>
       <c r="N2" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="O2" t="n">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -544,18 +544,18 @@
         <v>51</v>
       </c>
       <c r="N3" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O3" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -591,36 +591,36 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -635,18 +635,18 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="N5" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -655,22 +655,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -685,15 +685,15 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -702,45 +702,45 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>40</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -779,15 +779,15 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -826,62 +826,62 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>63</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>43</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>70</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>10</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>44</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4</v>
-      </c>
-      <c r="O10" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -890,22 +890,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -923,15 +923,15 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -964,13 +964,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:15">
